--- a/ListasDatos/Flores González Ángel_2021.xlsx
+++ b/ListasDatos/Flores González Ángel_2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="283">
   <si>
     <t>NC</t>
   </si>
@@ -367,6 +367,9 @@
     <t>adriana_arelycg@outlook.com</t>
   </si>
   <si>
+    <t>aisha.naomi05@hotmail.com</t>
+  </si>
+  <si>
     <t>arant0610@gmail.com</t>
   </si>
   <si>
@@ -472,6 +475,9 @@
     <t>2722088572</t>
   </si>
   <si>
+    <t>2721538846</t>
+  </si>
+  <si>
     <t>2721829816</t>
   </si>
   <si>
@@ -619,7 +625,7 @@
     <t>FERNANDO ELOY BUSTOS HERNÁNDEZ</t>
   </si>
   <si>
-    <t>KARINA JAQUELINE LEAL RIVERA CANSECO DIAZ LEAL RIVERA</t>
+    <t>KARINA JAQUELINE LEAL RIVERA</t>
   </si>
   <si>
     <t>MARIA ELENA GONZALEZ TINOCO</t>
@@ -628,6 +634,9 @@
     <t>JOSÉ ADRIÁN CRUZ BERISTAIN</t>
   </si>
   <si>
+    <t>JACINTO CRUZ MARTÍNEZ</t>
+  </si>
+  <si>
     <t>GREGORIO ARROYO MENDOZA</t>
   </si>
   <si>
@@ -733,9 +742,6 @@
     <t>lobatodaniel007@gmail.com</t>
   </si>
   <si>
-    <t>Kakakabs</t>
-  </si>
-  <si>
     <t>bonylopez119@gmail.com</t>
   </si>
   <si>
@@ -788,6 +794,9 @@
   </si>
   <si>
     <t>2722581860</t>
+  </si>
+  <si>
+    <t>2721757221</t>
   </si>
   <si>
     <t>2727221943</t>
@@ -1275,19 +1284,19 @@
         <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I2" t="s">
         <v>108</v>
       </c>
       <c r="J2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1307,19 +1316,19 @@
         <v>109</v>
       </c>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1339,13 +1348,13 @@
         <v>110</v>
       </c>
       <c r="F4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1365,19 +1374,19 @@
         <v>111</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1397,19 +1406,19 @@
         <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I6" t="s">
         <v>112</v>
       </c>
       <c r="J6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1429,16 +1438,16 @@
         <v>113</v>
       </c>
       <c r="F7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1458,16 +1467,16 @@
         <v>114</v>
       </c>
       <c r="F8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1487,16 +1496,16 @@
         <v>115</v>
       </c>
       <c r="F9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="J9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1516,19 +1525,19 @@
         <v>116</v>
       </c>
       <c r="F10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I10" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="J10" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1544,6 +1553,21 @@
       <c r="D11" t="s">
         <v>81</v>
       </c>
+      <c r="E11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" t="s">
+        <v>206</v>
+      </c>
+      <c r="J11" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
@@ -1559,22 +1583,22 @@
         <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H12" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I12" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1591,22 +1615,22 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H13" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1623,22 +1647,22 @@
         <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H14" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1655,19 +1679,19 @@
         <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H15" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I15" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J15" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1684,19 +1708,19 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H16" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I16" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="J16" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1713,22 +1737,22 @@
         <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H17" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J17" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1745,19 +1769,19 @@
         <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H18" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J18" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1774,19 +1798,19 @@
         <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H19" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="I19" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="J19" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1803,22 +1827,19 @@
         <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I20" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="J20" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1835,22 +1856,22 @@
         <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H21" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J21" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1867,22 +1888,22 @@
         <v>92</v>
       </c>
       <c r="E22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H22" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="I22" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J22" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1899,19 +1920,19 @@
         <v>93</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F23" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H23" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I23" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1928,22 +1949,22 @@
         <v>94</v>
       </c>
       <c r="E24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H24" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I24" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J24" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1960,22 +1981,22 @@
         <v>95</v>
       </c>
       <c r="E25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F25" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G25" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H25" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I25" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J25" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1992,16 +2013,16 @@
         <v>96</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F26" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G26" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H26" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2018,19 +2039,19 @@
         <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H27" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I27" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J27" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2047,22 +2068,22 @@
         <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H28" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I28" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J28" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2079,22 +2100,22 @@
         <v>99</v>
       </c>
       <c r="E29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F29" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G29" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H29" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I29" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J29" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2111,19 +2132,19 @@
         <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H30" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J30" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2140,22 +2161,22 @@
         <v>101</v>
       </c>
       <c r="E31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H31" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J31" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2172,22 +2193,22 @@
         <v>102</v>
       </c>
       <c r="E32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F32" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G32" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H32" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J32" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2204,19 +2225,19 @@
         <v>103</v>
       </c>
       <c r="E33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F33" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H33" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I33" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J33" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2233,22 +2254,22 @@
         <v>104</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F34" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G34" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H34" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I34" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J34" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2265,22 +2286,22 @@
         <v>105</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F35" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G35" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H35" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I35" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J35" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2297,16 +2318,16 @@
         <v>106</v>
       </c>
       <c r="E36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F36" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H36" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J36" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2323,19 +2344,19 @@
         <v>107</v>
       </c>
       <c r="E37" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F37" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H37" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I37" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J37" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
